--- a/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003545CC-9909-44DF-865F-CE1646F4C16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF777E-18FF-410A-B08B-9A522ECFFCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A3:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="3">
-        <v>20125</v>
+        <v>20105</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="2"/>
@@ -668,7 +668,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="5">
-        <v>20126</v>
+        <v>20106</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="2"/>
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="3">
-        <v>20127</v>
+        <v>20107</v>
       </c>
       <c r="I9"/>
     </row>
@@ -713,7 +713,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="5">
-        <v>20128</v>
+        <v>20108</v>
       </c>
       <c r="I10"/>
     </row>

--- a/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF777E-18FF-410A-B08B-9A522ECFFCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A29492E-55F1-4F8A-B6D4-EA88F8302824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="中心区" sheetId="3" r:id="rId2"/>
+    <sheet name="Robot区" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -74,87 +75,114 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot01</t>
+  </si>
+  <si>
+    <t>OuterPort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBCache</t>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReCharge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaiMai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20004-20100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>#3区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Map</t>
-  </si>
-  <si>
-    <t>OuterPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBCache</t>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaiMai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Center</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Union</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginCenter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>Queue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#审核专区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountCenter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20004-20100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FubenCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -535,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:L120"/>
+  <dimension ref="A3:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -551,7 +579,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -571,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -588,10 +616,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -608,12 +636,12 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -622,44 +650,38 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>37</v>
+      </c>
       <c r="C7" s="5">
-        <v>20001</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
-        <v>201</v>
+      <c r="E7" s="5">
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3">
-        <v>20105</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="H7" s="5">
+        <v>20305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="5">
-        <v>20002</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
-        <v>201</v>
+      <c r="E8" s="5">
+        <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
@@ -668,438 +690,579 @@
         <v>13</v>
       </c>
       <c r="H8" s="5">
-        <v>20106</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+        <v>20306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
-        <v>20003</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>201</v>
+      <c r="E9" s="5">
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5">
+        <v>20308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
         <v>15</v>
       </c>
-      <c r="H9" s="3">
-        <v>20107</v>
-      </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C10" s="5">
-        <v>20004</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="5">
         <v>201</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="5">
-        <v>20108</v>
-      </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="5">
-        <v>20005</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>201</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="5">
-        <v>20007</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>201</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="3">
+        <v>20325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="5">
+        <v>202</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="5">
+        <v>20326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="5">
+        <v>203</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3">
+        <v>20327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="5">
+        <v>204</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="5">
+        <v>20328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="5">
+        <v>205</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="5">
-        <v>20008</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>201</v>
-      </c>
-      <c r="F13" s="3" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="5">
+        <v>206</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="5">
-        <v>20009</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>201</v>
-      </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="5">
+        <v>207</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="5">
-        <v>20010</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>201</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
-        <v>20011</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>201</v>
-      </c>
-      <c r="F16" s="3" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="5">
+        <v>208</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="5">
-        <v>20012</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>201</v>
-      </c>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="5">
+        <v>209</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="5">
-        <v>20013</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>201</v>
-      </c>
-      <c r="F18" s="3" t="s">
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="5">
+        <v>210</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="5">
-        <v>20014</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>201</v>
-      </c>
-      <c r="F19" s="3" t="s">
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="5">
+        <v>211</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="5">
-        <v>20015</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>201</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="5">
-        <v>20016</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>201</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="5">
+        <v>212</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="5">
+        <v>213</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="5">
+        <v>214</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="5">
+        <v>215</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="5">
+        <v>216</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="5">
+        <v>217</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1109,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E4FE9-40EC-416B-98D4-974131A9BB4C}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1221,10 +1384,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -1239,10 +1402,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -1275,13 +1438,30 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" s="5">
-        <v>20104</v>
+        <v>20304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C10" s="5">
+        <v>20205</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>202</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1289,4 +1469,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C3:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="5">
+        <v>20301</v>
+      </c>
+      <c r="D6" s="5">
+        <v>203</v>
+      </c>
+      <c r="E6" s="5">
+        <v>203</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A29492E-55F1-4F8A-B6D4-EA88F8302824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8D303B-F842-4844-AE8D-D6187582B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>Map102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H41"/>
+  <dimension ref="A3:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>209</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>210</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>211</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
         <v>212</v>
       </c>
@@ -1178,7 +1182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
         <v>213</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="5">
         <v>214</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="5">
         <v>215</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="5">
         <v>216</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="5">
         <v>217</v>
       </c>
@@ -1260,6 +1264,312 @@
         <v>43</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="5">
+        <v>301</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="3">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="5">
+        <v>302</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="5">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="5">
+        <v>303</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="3">
+        <v>20337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="5">
+        <v>304</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="5">
+        <v>20338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="5">
+        <v>305</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="5">
+        <v>306</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="5">
+        <v>307</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="5">
+        <v>308</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="5">
+        <v>309</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="5">
+        <v>310</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="5">
+        <v>311</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="5">
+        <v>312</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="5">
+        <v>313</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="5">
+        <v>314</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>4</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="5">
+        <v>315</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="5">
+        <v>316</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="5">
+        <v>317</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\banhao-xiugai\BanHao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2EE126-5B59-447A-A000-748305062F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93781881-D824-4796-A7DC-3DC48F1D8CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
   <dimension ref="A3:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartSceneConfig@s.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93781881-D824-4796-A7DC-3DC48F1D8CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902CD65C-0877-4319-A2E1-8FC343D7168A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="900" windowWidth="22365" windowHeight="13050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="中心区" sheetId="3" r:id="rId2"/>
+    <sheet name="Robot区" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -65,105 +66,155 @@
     <t>Realm</t>
   </si>
   <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot01</t>
+  </si>
+  <si>
+    <t>OuterPort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBCache</t>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReCharge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaiMai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20004-20100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>Arena</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiaYuan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popularize</t>
+  </si>
+  <si>
+    <t>Popularize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon3</t>
+  </si>
+  <si>
+    <t>LocalDungeon4</t>
+  </si>
+  <si>
+    <t>DBCache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Gate</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>OuterPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBCache</t>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaiMai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Center</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Union</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginCenter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>Queue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#审核专区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountCenter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20004-20100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FubenCenter</t>
-  </si>
-  <si>
-    <t>Gate1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#版号区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -171,6 +222,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +294,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,24 +605,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:L120"/>
+  <dimension ref="A3:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="12.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -581,8 +642,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -598,11 +659,11 @@
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -618,58 +679,60 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="5">
-        <v>20001</v>
+      <c r="C7" s="7">
+        <v>20101</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
+      <c r="E7" s="3">
+        <v>201</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3">
         <v>20105</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="C8" s="5">
-        <v>20002</v>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="7">
+        <v>20102</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
+      <c r="E8" s="3">
+        <v>201</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
@@ -677,459 +740,398 @@
       <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>20106</v>
       </c>
-      <c r="I8"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
-        <v>20003</v>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="7">
+        <v>20103</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
+      <c r="E9" s="3">
+        <v>201</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="3">
         <v>20107</v>
       </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C10" s="5">
-        <v>20004</v>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="7">
+        <v>20104</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="3">
+        <v>20108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>20105</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>201</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>20106</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>201</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <v>20107</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>201</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
+        <v>20108</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>201</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
+        <v>20109</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>201</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
+        <v>20110</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>201</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="7">
+        <v>20111</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>201</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>20112</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>201</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <v>20113</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>201</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="5">
-        <v>20108</v>
-      </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="5">
-        <v>20005</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="5">
-        <v>20006</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="5">
-        <v>20007</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="5">
-        <v>20008</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="5">
-        <v>20009</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
-        <v>20010</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="5">
-        <v>20011</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="5">
-        <v>20012</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="5">
-        <v>20013</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="5">
-        <v>20014</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="7">
+        <v>20114</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="5">
-        <v>20015</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
+        <v>20115</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22" s="5">
-        <v>20016</v>
-      </c>
-      <c r="D22" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <v>20116</v>
+      </c>
+      <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="5">
-        <v>20017</v>
-      </c>
-      <c r="D23" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
+        <v>20117</v>
+      </c>
+      <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="7">
+        <v>20118</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>201</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="7">
+        <v>20119</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>201</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <v>20120</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>201</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="7">
+        <v>20121</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>201</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="7">
+        <v>20122</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>201</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="7">
+        <v>20123</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>201</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="7">
+        <v>20124</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>201</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1139,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E4FE9-40EC-416B-98D4-974131A9BB4C}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1251,10 +1253,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -1269,10 +1271,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -1305,13 +1307,30 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5">
         <v>20104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C10" s="5">
+        <v>20205</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>202</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1319,4 +1338,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C3:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="5">
+        <v>20301</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>203</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>